--- a/S158_127/1.0.0/S-158_127_1_0_0_20251226.xlsx
+++ b/S158_127/1.0.0/S-158_127_1_0_0_20251226.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\S-127-Product-Specification-Development\S158_127\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF4810-54AB-4B8D-BEFD-B51172DCAC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5087B0-A6EF-4955-BEE8-26E0AD129973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="476">
   <si>
     <t>Document Number</t>
   </si>
@@ -1904,6 +1904,33 @@
   </si>
   <si>
     <t>CautionArea may have "open-ended" appearance</t>
+  </si>
+  <si>
+    <t>Nilled attribute code populated with non-nil code value</t>
+  </si>
+  <si>
+    <t>For each nillable enumeration or codelist attribute where xsi:nil=true but attribute code is present and populated with a value &gt; 0</t>
+  </si>
+  <si>
+    <t>Amend value of code or remove nilling</t>
+  </si>
+  <si>
+    <t>B.U</t>
+  </si>
+  <si>
+    <t>Requirement needs to be documented in DCEG</t>
+  </si>
+  <si>
+    <t>Nilled attribute without nilReason populated</t>
+  </si>
+  <si>
+    <t>For each nilled attribute without nilReason populated</t>
+  </si>
+  <si>
+    <t>Populate nilReason for nilled attributes</t>
+  </si>
+  <si>
+    <t>Producers may further restrict allowed values of nilReason. Requirement needs to be added to DCEG</t>
   </si>
 </sst>
 </file>
@@ -2436,7 +2463,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2654,18 +2681,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2743,15 +2758,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2778,6 +2787,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3092,14 +3113,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="33.6" customHeight="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
@@ -3225,7 +3246,7 @@
       <c r="G12" s="34"/>
     </row>
     <row r="13" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="125" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -3239,7 +3260,7 @@
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B14" s="88"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="23" t="s">
         <v>34</v>
       </c>
@@ -3251,7 +3272,7 @@
       <c r="G14" s="34"/>
     </row>
     <row r="15" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B15" s="88"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="24" t="s">
         <v>35</v>
       </c>
@@ -3263,7 +3284,7 @@
       <c r="G15" s="34"/>
     </row>
     <row r="16" spans="2:8" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B16" s="88"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="57" t="s">
         <v>27</v>
       </c>
@@ -3275,7 +3296,7 @@
       <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B17" s="88"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -3283,7 +3304,7 @@
       <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7" s="9" customFormat="1" ht="20.45" customHeight="1">
-      <c r="B18" s="88"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="27"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -3322,45 +3343,45 @@
   <dimension ref="A1:O138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5" thickBottom="1"/>
   <cols>
-    <col min="1" max="1" width="13" style="113" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="102" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="113" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" style="101" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" style="101" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" style="101" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="110" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="94" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="111" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="111" customWidth="1"/>
-    <col min="11" max="11" width="8" style="111" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="101" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="101" customWidth="1"/>
+    <col min="1" max="1" width="13" style="109" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="109" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="97" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="97" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="106" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="90" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="107" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="107" customWidth="1"/>
+    <col min="11" max="11" width="8" style="107" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="97" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="97" customWidth="1"/>
     <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" thickBot="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="93" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="81" t="s">
@@ -3386,562 +3407,562 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" thickBot="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="98" t="str">
+      <c r="B2" s="94" t="str">
         <f>_xlfn.CONCAT("127_", TEXT(ROW()-1, "0000"))</f>
         <v>127_0001</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H2" s="90">
+      <c r="H2" s="86">
         <v>7.3</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="92"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="26.25" hidden="1" thickBot="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="98" t="str">
+      <c r="B3" s="94" t="str">
         <f>_xlfn.CONCAT("127_", TEXT(ROW()-1, "0000"))</f>
         <v>127_0002</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="90">
+      <c r="H3" s="86">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="26.25" thickBot="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="98" t="str">
+      <c r="B4" s="94" t="str">
         <f t="shared" ref="B4:B67" si="0">_xlfn.CONCAT("127_", TEXT(ROW()-1, "0000"))</f>
         <v>127_0003</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="96" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H4" s="116">
+      <c r="H4" s="86">
         <v>12.8</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="M4" s="92"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:15" ht="39" thickBot="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="98" t="str">
+      <c r="B5" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0004</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="96" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="86">
         <v>4.2</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="92" t="s">
+      <c r="L5" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="M5" s="92"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:15" ht="39" hidden="1" thickBot="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="98" t="str">
+      <c r="B6" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0005</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="86">
         <v>10.5</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96" t="s">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="49" customFormat="1" ht="39" thickBot="1">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="98" t="str">
+      <c r="B7" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0006</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="99" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="86">
         <v>12.4</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92" t="s">
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M7" s="92"/>
+      <c r="M7" s="88"/>
     </row>
     <row r="8" spans="1:15" s="49" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="98" t="str">
+      <c r="B8" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0007</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="99" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="H8" s="90" t="s">
+      <c r="H8" s="86" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92" t="s">
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="92"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="1:15" ht="39" hidden="1" thickBot="1">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="98" t="str">
+      <c r="B9" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0008</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="101" t="s">
+      <c r="H9" s="86"/>
+      <c r="I9" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="101"/>
-      <c r="K9" s="96" t="s">
+      <c r="J9" s="97"/>
+      <c r="K9" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L9" s="92" t="s">
+      <c r="L9" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="26.25" hidden="1" thickBot="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="98" t="str">
+      <c r="B10" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0009</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="101" t="s">
+      <c r="H10" s="86"/>
+      <c r="I10" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="101"/>
-      <c r="K10" s="96" t="s">
+      <c r="J10" s="97"/>
+      <c r="K10" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L10" s="92" t="s">
+      <c r="L10" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M10" s="101" t="s">
+      <c r="M10" s="97" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="26.25" hidden="1" thickBot="1">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="98" t="str">
+      <c r="B11" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0010</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="100" t="s">
+      <c r="G11" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="92" t="s">
+      <c r="H11" s="86"/>
+      <c r="I11" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="101"/>
-      <c r="K11" s="96" t="s">
+      <c r="J11" s="97"/>
+      <c r="K11" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L11" s="92" t="s">
+      <c r="L11" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M11" s="92" t="s">
+      <c r="M11" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="26.25" hidden="1" thickBot="1">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="98" t="str">
+      <c r="B12" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0011</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="101" t="s">
+      <c r="H12" s="86"/>
+      <c r="I12" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="101"/>
-      <c r="K12" s="96" t="s">
+      <c r="J12" s="97"/>
+      <c r="K12" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L12" s="92" t="s">
+      <c r="L12" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M12" s="92" t="s">
+      <c r="M12" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="49" customFormat="1" ht="26.25" hidden="1" thickBot="1">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="98" t="str">
+      <c r="B13" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0012</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="99" t="s">
         <v>310</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="100" t="s">
+      <c r="G13" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="92" t="s">
+      <c r="H13" s="86"/>
+      <c r="I13" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="92"/>
-      <c r="K13" s="96" t="s">
+      <c r="J13" s="88"/>
+      <c r="K13" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L13" s="92" t="s">
+      <c r="L13" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="M13" s="92" t="s">
+      <c r="M13" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="49" customFormat="1" ht="26.25" hidden="1" thickBot="1">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="98" t="str">
+      <c r="B14" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0013</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="99" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="100" t="s">
+      <c r="G14" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="92" t="s">
+      <c r="H14" s="86"/>
+      <c r="I14" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="96" t="s">
+      <c r="J14" s="88"/>
+      <c r="K14" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L14" s="92" t="s">
+      <c r="L14" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="M14" s="92" t="s">
+      <c r="M14" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="26.25" hidden="1" thickBot="1">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="B15" s="98" t="str">
+      <c r="B15" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0014</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="116" t="s">
         <v>437</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="100" t="s">
+      <c r="G15" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="90" t="s">
+      <c r="H15" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="I15" s="101" t="s">
+      <c r="I15" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="101"/>
-      <c r="K15" s="96" t="s">
+      <c r="J15" s="97"/>
+      <c r="K15" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L15" s="92" t="s">
+      <c r="L15" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M15" s="92" t="s">
+      <c r="M15" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="49" customFormat="1" ht="39" thickBot="1">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="98" t="str">
+      <c r="B16" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0015</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="96" t="s">
         <v>438</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H16" s="116">
+      <c r="H16" s="86">
         <v>12.5</v>
       </c>
-      <c r="I16" s="92" t="s">
+      <c r="I16" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="92" t="s">
+      <c r="J16" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92" t="s">
+      <c r="K16" s="88"/>
+      <c r="L16" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M16" s="82" t="s">
@@ -3949,39 +3970,39 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="39" thickBot="1">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="98" t="str">
+      <c r="B17" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0016</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="117" t="s">
+      <c r="G17" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="I17" s="101" t="s">
+      <c r="I17" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="92" t="s">
+      <c r="J17" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="92" t="s">
+      <c r="K17" s="97"/>
+      <c r="L17" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M17" s="82" t="s">
@@ -3989,36 +4010,36 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="39" thickBot="1">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="98" t="str">
+      <c r="B18" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0017</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="99" t="s">
+      <c r="F18" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="117" t="s">
+      <c r="G18" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="H18" s="90"/>
-      <c r="I18" s="101" t="s">
+      <c r="H18" s="86"/>
+      <c r="I18" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="96" t="s">
+      <c r="J18" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L18" s="92" t="s">
+      <c r="L18" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M18" s="82" t="s">
@@ -4026,33 +4047,33 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="39" thickBot="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="98" t="str">
+      <c r="B19" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0018</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="99" t="s">
+      <c r="F19" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="117" t="s">
+      <c r="G19" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="H19" s="90"/>
-      <c r="I19" s="101" t="s">
+      <c r="H19" s="86"/>
+      <c r="I19" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="92" t="s">
+      <c r="L19" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M19" s="82" t="s">
@@ -4060,103 +4081,103 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="39" thickBot="1">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="98" t="str">
+      <c r="B20" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0019</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="99" t="s">
+      <c r="F20" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="86">
         <v>3</v>
       </c>
-      <c r="I20" s="101" t="s">
+      <c r="I20" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="92" t="s">
+      <c r="L20" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M20" s="92"/>
+      <c r="M20" s="88"/>
     </row>
     <row r="21" spans="1:13" ht="39" thickBot="1">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="98" t="str">
+      <c r="B21" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0020</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="117" t="s">
+      <c r="G21" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="H21" s="90">
+      <c r="H21" s="86">
         <v>3</v>
       </c>
-      <c r="I21" s="101" t="s">
+      <c r="I21" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="92" t="s">
+      <c r="L21" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M21" s="92"/>
+      <c r="M21" s="88"/>
     </row>
     <row r="22" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="B22" s="98" t="str">
+      <c r="B22" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0021</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="94" t="s">
         <v>312</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="F22" s="123" t="s">
+      <c r="F22" s="117" t="s">
         <v>444</v>
       </c>
-      <c r="G22" s="100" t="s">
+      <c r="G22" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H22" s="90" t="s">
+      <c r="H22" s="86" t="s">
         <v>401</v>
       </c>
-      <c r="I22" s="101" t="s">
+      <c r="I22" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="92" t="s">
+      <c r="L22" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M22" s="82" t="s">
@@ -4164,256 +4185,256 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="26.25" hidden="1" thickBot="1">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="B23" s="98" t="str">
+      <c r="B23" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0022</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="99" t="s">
         <v>310</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="99" t="s">
+      <c r="E23" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="99" t="s">
+      <c r="F23" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="100" t="s">
+      <c r="G23" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="87" t="s">
         <v>445</v>
       </c>
-      <c r="I23" s="101" t="s">
+      <c r="I23" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="96" t="s">
+      <c r="K23" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L23" s="114" t="s">
+      <c r="L23" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="M23" s="92"/>
+      <c r="M23" s="88"/>
     </row>
     <row r="24" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="98" t="str">
+      <c r="B24" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0023</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="100" t="s">
+      <c r="E24" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="F24" s="99" t="s">
+      <c r="F24" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="117" t="s">
+      <c r="G24" s="112" t="s">
         <v>308</v>
       </c>
-      <c r="H24" s="90" t="s">
+      <c r="H24" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="I24" s="101" t="s">
+      <c r="I24" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="92" t="s">
+      <c r="L24" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="M24" s="92"/>
+      <c r="M24" s="88"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" hidden="1" thickBot="1">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="B25" s="98" t="str">
+      <c r="B25" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0024</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="100" t="s">
+      <c r="G25" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H25" s="90"/>
-      <c r="I25" s="101" t="s">
+      <c r="H25" s="86"/>
+      <c r="I25" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="96" t="s">
+      <c r="K25" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L25" s="92" t="s">
+      <c r="L25" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M25" s="92" t="s">
+      <c r="M25" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="26.25" hidden="1" thickBot="1">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="B26" s="98" t="str">
+      <c r="B26" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0025</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="D26" s="100" t="s">
+      <c r="D26" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="100" t="s">
+      <c r="E26" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="99" t="s">
+      <c r="F26" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="100" t="s">
+      <c r="G26" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H26" s="90"/>
-      <c r="I26" s="101" t="s">
+      <c r="H26" s="86"/>
+      <c r="I26" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="96" t="s">
+      <c r="K26" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L26" s="92" t="s">
+      <c r="L26" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M26" s="92" t="s">
+      <c r="M26" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="39" hidden="1" thickBot="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="94" t="s">
         <v>251</v>
       </c>
-      <c r="B27" s="98" t="str">
+      <c r="B27" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0026</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="99" t="s">
+      <c r="F27" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="100" t="s">
+      <c r="G27" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H27" s="90"/>
-      <c r="I27" s="101" t="s">
+      <c r="H27" s="86"/>
+      <c r="I27" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96" t="s">
+      <c r="J27" s="92"/>
+      <c r="K27" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L27" s="92" t="s">
+      <c r="L27" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M27" s="92" t="s">
+      <c r="M27" s="88" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="B28" s="98" t="str">
+      <c r="B28" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0027</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="99" t="s">
+      <c r="E28" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="99" t="s">
+      <c r="F28" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="100" t="s">
+      <c r="G28" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H28" s="116">
+      <c r="H28" s="86">
         <v>12.9</v>
       </c>
-      <c r="I28" s="101" t="s">
+      <c r="I28" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="96"/>
-      <c r="L28" s="92" t="s">
+      <c r="J28" s="92"/>
+      <c r="L28" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="M28" s="92"/>
+      <c r="M28" s="88"/>
     </row>
     <row r="29" spans="1:13" thickBot="1">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="B29" s="98" t="str">
+      <c r="B29" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0028</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="99" t="s">
         <v>313</v>
       </c>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="100" t="s">
+      <c r="E29" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="G29" s="100" t="s">
+      <c r="G29" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="86">
         <v>12.1</v>
       </c>
-      <c r="I29" s="101" t="s">
+      <c r="I29" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L29" s="92" t="s">
+      <c r="L29" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M29" s="82" t="s">
@@ -4421,37 +4442,37 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="49" customFormat="1" ht="26.25" hidden="1" thickBot="1">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="B30" s="98" t="str">
+      <c r="B30" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0029</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="100" t="s">
+      <c r="D30" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="100" t="s">
+      <c r="E30" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="100" t="s">
+      <c r="F30" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="G30" s="100" t="s">
+      <c r="G30" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="92" t="s">
+      <c r="H30" s="86"/>
+      <c r="I30" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96" t="s">
+      <c r="J30" s="92"/>
+      <c r="K30" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L30" s="92" t="s">
+      <c r="L30" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M30" s="82" t="s">
@@ -4459,37 +4480,37 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="49" customFormat="1" ht="39" thickBot="1">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="98" t="str">
+      <c r="B31" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0030</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="99" t="s">
         <v>313</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="100" t="s">
+      <c r="E31" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="100" t="s">
+      <c r="F31" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="G31" s="100" t="s">
+      <c r="G31" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="H31" s="90" t="s">
+      <c r="H31" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="I31" s="92" t="s">
+      <c r="I31" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="92" t="s">
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M31" s="82" t="s">
@@ -4497,34 +4518,34 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="26.25" hidden="1" thickBot="1">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="98" t="str">
+      <c r="B32" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0031</v>
       </c>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="E32" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="F32" s="109" t="s">
+      <c r="F32" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="111" t="s">
+      <c r="H32" s="99"/>
+      <c r="I32" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96" t="s">
+      <c r="J32" s="92"/>
+      <c r="K32" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L32" s="92" t="s">
+      <c r="L32" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M32" s="82" t="s">
@@ -4532,35 +4553,35 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="26.25" hidden="1" thickBot="1">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="B33" s="98" t="str">
+      <c r="B33" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0032</v>
       </c>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D33" s="112" t="s">
+      <c r="D33" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="112" t="s">
+      <c r="F33" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="I33" s="92" t="s">
+      <c r="I33" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="96" t="s">
+      <c r="K33" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L33" s="92" t="s">
+      <c r="L33" s="88" t="s">
         <v>222</v>
       </c>
       <c r="M33" s="82" t="s">
@@ -4568,140 +4589,140 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="98" t="str">
+      <c r="B34" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0033</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D34" s="112" t="s">
+      <c r="D34" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="95" t="s">
+      <c r="E34" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="F34" s="112" t="s">
+      <c r="F34" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="G34" s="110" t="s">
+      <c r="G34" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H34" s="94" t="s">
+      <c r="H34" s="90" t="s">
         <v>359</v>
       </c>
-      <c r="I34" s="92" t="s">
+      <c r="I34" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L34" s="92" t="s">
+      <c r="L34" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M34" s="101" t="s">
+      <c r="M34" s="97" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="39" thickBot="1">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="B35" s="98" t="str">
+      <c r="B35" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0034</v>
       </c>
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="112" t="s">
+      <c r="E35" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="112" t="s">
+      <c r="F35" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="G35" s="117" t="s">
+      <c r="G35" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="H35" s="118" t="s">
+      <c r="H35" s="90" t="s">
         <v>402</v>
       </c>
-      <c r="I35" s="92" t="s">
+      <c r="I35" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L35" s="92" t="s">
+      <c r="L35" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="B36" s="98" t="str">
+      <c r="B36" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0035</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D36" s="112" t="s">
+      <c r="D36" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="112" t="s">
+      <c r="E36" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="112" t="s">
+      <c r="F36" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H36" s="118" t="s">
+      <c r="H36" s="90" t="s">
         <v>365</v>
       </c>
-      <c r="I36" s="92" t="s">
+      <c r="I36" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L36" s="92" t="s">
+      <c r="L36" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="26.25" hidden="1" thickBot="1">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="B37" s="98" t="str">
+      <c r="B37" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0036</v>
       </c>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D37" s="112" t="s">
+      <c r="D37" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="95" t="s">
+      <c r="E37" s="91" t="s">
         <v>341</v>
       </c>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="G37" s="110" t="s">
+      <c r="G37" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H37" s="94">
+      <c r="H37" s="90">
         <v>13.1</v>
       </c>
-      <c r="I37" s="92" t="s">
+      <c r="I37" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="96" t="s">
+      <c r="K37" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L37" s="92" t="s">
+      <c r="L37" s="88" t="s">
         <v>220</v>
       </c>
       <c r="M37" s="82" t="s">
@@ -4709,693 +4730,693 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="98" t="str">
+      <c r="B38" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0037</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="112" t="s">
+      <c r="E38" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="112" t="s">
+      <c r="F38" s="108" t="s">
         <v>187</v>
       </c>
-      <c r="G38" s="117" t="s">
+      <c r="G38" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="H38" s="90">
+      <c r="H38" s="86">
         <v>13.1</v>
       </c>
-      <c r="I38" s="92" t="s">
+      <c r="I38" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="96"/>
-      <c r="L38" s="92" t="s">
+      <c r="K38" s="92"/>
+      <c r="L38" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="B39" s="98" t="str">
+      <c r="B39" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0038</v>
       </c>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="D39" s="112" t="s">
+      <c r="D39" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="112" t="s">
+      <c r="F39" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="G39" s="110" t="s">
+      <c r="G39" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H39" s="94">
+      <c r="H39" s="90">
         <v>13.1</v>
       </c>
-      <c r="I39" s="92" t="s">
+      <c r="I39" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L39" s="92" t="s">
+      <c r="L39" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="42" customHeight="1" thickBot="1">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="94" t="s">
         <v>264</v>
       </c>
-      <c r="B40" s="98" t="str">
+      <c r="B40" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0039</v>
       </c>
-      <c r="C40" s="102" t="s">
+      <c r="C40" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="D40" s="112" t="s">
+      <c r="D40" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="95" t="s">
+      <c r="E40" s="91" t="s">
         <v>342</v>
       </c>
-      <c r="F40" s="112" t="s">
+      <c r="F40" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="G40" s="110" t="s">
+      <c r="G40" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H40" s="94">
+      <c r="H40" s="90">
         <v>14.1</v>
       </c>
-      <c r="I40" s="92" t="s">
+      <c r="I40" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J40" s="96" t="s">
+      <c r="J40" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L40" s="92" t="s">
+      <c r="L40" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M40" s="92" t="s">
+      <c r="M40" s="88" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:13" thickBot="1">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="B41" s="98" t="str">
+      <c r="B41" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0040</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D41" s="112" t="s">
+      <c r="D41" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="112" t="s">
+      <c r="F41" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="G41" s="117" t="s">
+      <c r="G41" s="112" t="s">
         <v>308</v>
       </c>
-      <c r="H41" s="90" t="s">
+      <c r="H41" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="I41" s="92" t="s">
+      <c r="I41" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L41" s="92" t="s">
+      <c r="L41" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="39" hidden="1" thickBot="1">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="94" t="s">
         <v>266</v>
       </c>
-      <c r="B42" s="98" t="str">
+      <c r="B42" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0041</v>
       </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D42" s="112" t="s">
+      <c r="D42" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="112" t="s">
+      <c r="E42" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="112" t="s">
+      <c r="F42" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H42" s="94" t="s">
+      <c r="H42" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="I42" s="92" t="s">
+      <c r="I42" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="96" t="s">
+      <c r="K42" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L42" s="92" t="s">
+      <c r="L42" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M42" s="101" t="s">
+      <c r="M42" s="97" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="39" hidden="1" thickBot="1">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="B43" s="98" t="str">
+      <c r="B43" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0042</v>
       </c>
-      <c r="C43" s="102" t="s">
+      <c r="C43" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D43" s="112" t="s">
+      <c r="D43" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="112" t="s">
+      <c r="E43" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H43" s="94" t="s">
+      <c r="H43" s="90" t="s">
         <v>303</v>
       </c>
-      <c r="I43" s="92" t="s">
+      <c r="I43" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="96" t="s">
+      <c r="K43" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L43" s="92" t="s">
+      <c r="L43" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M43" s="101" t="s">
+      <c r="M43" s="97" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="39" hidden="1" thickBot="1">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="98" t="str">
+      <c r="B44" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0043</v>
       </c>
-      <c r="C44" s="102" t="s">
+      <c r="C44" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D44" s="112" t="s">
+      <c r="D44" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="112" t="s">
+      <c r="E44" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="112" t="s">
+      <c r="F44" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="G44" s="110" t="s">
+      <c r="G44" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H44" s="94" t="s">
+      <c r="H44" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="I44" s="92" t="s">
+      <c r="I44" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K44" s="96" t="s">
+      <c r="K44" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L44" s="92" t="s">
+      <c r="L44" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M44" s="101" t="s">
+      <c r="M44" s="97" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="B45" s="98" t="str">
+      <c r="B45" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0044</v>
       </c>
-      <c r="C45" s="102" t="s">
+      <c r="C45" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D45" s="95" t="s">
+      <c r="D45" s="91" t="s">
         <v>343</v>
       </c>
-      <c r="E45" s="95" t="s">
+      <c r="E45" s="91" t="s">
         <v>344</v>
       </c>
-      <c r="F45" s="112" t="s">
+      <c r="F45" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H45" s="94" t="s">
+      <c r="H45" s="90" t="s">
         <v>358</v>
       </c>
-      <c r="I45" s="92" t="s">
+      <c r="I45" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="92" t="s">
+      <c r="L45" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A46" s="98" t="s">
+      <c r="A46" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="B46" s="98" t="str">
+      <c r="B46" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0045</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D46" s="112" t="s">
+      <c r="D46" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="95" t="s">
+      <c r="E46" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="112" t="s">
+      <c r="F46" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="G46" s="117" t="s">
+      <c r="G46" s="112" t="s">
         <v>308</v>
       </c>
-      <c r="H46" s="116" t="s">
+      <c r="H46" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="I46" s="92" t="s">
+      <c r="I46" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L46" s="92" t="s">
+      <c r="L46" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="B47" s="98" t="str">
+      <c r="B47" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0046</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="95" t="s">
+      <c r="E47" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="112" t="s">
+      <c r="F47" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="110" t="s">
+      <c r="G47" s="106" t="s">
         <v>321</v>
       </c>
-      <c r="I47" s="92" t="s">
+      <c r="I47" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L47" s="92" t="s">
+      <c r="L47" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A48" s="98" t="s">
+      <c r="A48" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="B48" s="98" t="str">
+      <c r="B48" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0047</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D48" s="112" t="s">
+      <c r="D48" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="95" t="s">
+      <c r="E48" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="112" t="s">
+      <c r="F48" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="G48" s="117" t="s">
+      <c r="G48" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="H48" s="90" t="s">
+      <c r="H48" s="86" t="s">
         <v>345</v>
       </c>
-      <c r="I48" s="92" t="s">
+      <c r="I48" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L48" s="92" t="s">
+      <c r="L48" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="39" thickBot="1">
-      <c r="A49" s="98" t="s">
+      <c r="A49" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="B49" s="98" t="str">
+      <c r="B49" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0048</v>
       </c>
-      <c r="C49" s="102" t="s">
+      <c r="C49" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D49" s="112" t="s">
+      <c r="D49" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="95" t="s">
+      <c r="E49" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="112" t="s">
+      <c r="F49" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="117" t="s">
+      <c r="G49" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="H49" s="94" t="s">
+      <c r="H49" s="90" t="s">
         <v>364</v>
       </c>
-      <c r="I49" s="92" t="s">
+      <c r="I49" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="92" t="s">
+      <c r="L49" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M49" s="101" t="s">
+      <c r="M49" s="97" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="39" thickBot="1">
-      <c r="A50" s="98" t="s">
+      <c r="A50" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="B50" s="98" t="str">
+      <c r="B50" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0049</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D50" s="112" t="s">
+      <c r="D50" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="95" t="s">
+      <c r="E50" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="112" t="s">
+      <c r="F50" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="117" t="s">
+      <c r="G50" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="H50" s="94" t="s">
+      <c r="H50" s="90" t="s">
         <v>364</v>
       </c>
-      <c r="I50" s="92" t="s">
+      <c r="I50" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="92" t="s">
+      <c r="L50" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M50" s="101" t="s">
+      <c r="M50" s="97" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A51" s="98" t="s">
+      <c r="A51" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="B51" s="98" t="str">
+      <c r="B51" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0050</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D51" s="112" t="s">
+      <c r="D51" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="95" t="s">
+      <c r="E51" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="112" t="s">
+      <c r="F51" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="117" t="s">
+      <c r="G51" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="H51" s="90" t="s">
+      <c r="H51" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="I51" s="92" t="s">
+      <c r="I51" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L51" s="92" t="s">
+      <c r="L51" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="64.5" hidden="1" thickBot="1">
-      <c r="A52" s="98" t="s">
+      <c r="A52" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="B52" s="98" t="str">
+      <c r="B52" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0051</v>
       </c>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D52" s="112" t="s">
+      <c r="D52" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="95" t="s">
+      <c r="E52" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="112" t="s">
+      <c r="F52" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="G52" s="110" t="s">
+      <c r="G52" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="I52" s="92" t="s">
+      <c r="I52" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K52" s="96" t="s">
+      <c r="K52" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L52" s="92" t="s">
+      <c r="L52" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M52" s="101" t="s">
+      <c r="M52" s="97" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A53" s="98" t="s">
+      <c r="A53" s="94" t="s">
         <v>277</v>
       </c>
-      <c r="B53" s="98" t="str">
+      <c r="B53" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0052</v>
       </c>
-      <c r="C53" s="102" t="s">
+      <c r="C53" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="112" t="s">
+      <c r="D53" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="95" t="s">
+      <c r="E53" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="112" t="s">
+      <c r="F53" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="G53" s="117" t="s">
+      <c r="G53" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="H53" s="94">
+      <c r="H53" s="90">
         <v>13.1</v>
       </c>
-      <c r="I53" s="92" t="s">
+      <c r="I53" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="92" t="s">
+      <c r="L53" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A54" s="98" t="s">
+      <c r="A54" s="94" t="s">
         <v>278</v>
       </c>
-      <c r="B54" s="98" t="str">
+      <c r="B54" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0053</v>
       </c>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D54" s="112" t="s">
+      <c r="D54" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="95" t="s">
+      <c r="E54" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="112" t="s">
+      <c r="F54" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="G54" s="117" t="s">
+      <c r="G54" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="H54" s="90" t="s">
+      <c r="H54" s="86" t="s">
         <v>446</v>
       </c>
-      <c r="I54" s="92" t="s">
+      <c r="I54" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L54" s="92" t="s">
+      <c r="L54" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A55" s="98" t="s">
+      <c r="A55" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="98" t="str">
+      <c r="B55" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0054</v>
       </c>
-      <c r="C55" s="102" t="s">
+      <c r="C55" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D55" s="112" t="s">
+      <c r="D55" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="95" t="s">
+      <c r="E55" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="112" t="s">
+      <c r="F55" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="117" t="s">
+      <c r="G55" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="H55" s="94">
+      <c r="H55" s="90">
         <v>14.6</v>
       </c>
-      <c r="I55" s="92" t="s">
+      <c r="I55" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="92" t="s">
+      <c r="L55" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="98" t="str">
+      <c r="B56" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0055</v>
       </c>
-      <c r="C56" s="102" t="s">
+      <c r="C56" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D56" s="112" t="s">
+      <c r="D56" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="95" t="s">
+      <c r="E56" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="112" t="s">
+      <c r="F56" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="G56" s="117" t="s">
+      <c r="G56" s="112" t="s">
         <v>308</v>
       </c>
-      <c r="H56" s="94" t="s">
+      <c r="H56" s="90" t="s">
         <v>367</v>
       </c>
-      <c r="I56" s="92" t="s">
+      <c r="I56" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L56" s="92" t="s">
+      <c r="L56" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="39" thickBot="1">
-      <c r="A57" s="98" t="s">
+      <c r="A57" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="B57" s="98" t="str">
+      <c r="B57" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0056</v>
       </c>
-      <c r="C57" s="102" t="s">
+      <c r="C57" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D57" s="112" t="s">
+      <c r="D57" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="95" t="s">
+      <c r="E57" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="112" t="s">
+      <c r="F57" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="G57" s="110" t="s">
+      <c r="G57" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H57" s="94" t="s">
+      <c r="H57" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="I57" s="92" t="s">
+      <c r="I57" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L57" s="92" t="s">
+      <c r="L57" s="88" t="s">
         <v>220</v>
       </c>
       <c r="M57" s="82" t="s">
@@ -5403,691 +5424,691 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="39" hidden="1" thickBot="1">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="B58" s="98" t="str">
+      <c r="B58" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0057</v>
       </c>
-      <c r="C58" s="102"/>
-      <c r="D58" s="112" t="s">
+      <c r="C58" s="98"/>
+      <c r="D58" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="E58" s="112" t="s">
+      <c r="E58" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="112" t="s">
+      <c r="F58" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="G58" s="110" t="s">
+      <c r="G58" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H58" s="94" t="s">
+      <c r="H58" s="90" t="s">
         <v>368</v>
       </c>
-      <c r="I58" s="92" t="s">
+      <c r="I58" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K58" s="96" t="s">
+      <c r="K58" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L58" s="92" t="s">
+      <c r="L58" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M58" s="92" t="s">
+      <c r="M58" s="88" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="39" hidden="1" thickBot="1">
-      <c r="A59" s="98" t="s">
+      <c r="A59" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="B59" s="98" t="str">
+      <c r="B59" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0058</v>
       </c>
-      <c r="C59" s="102"/>
-      <c r="D59" s="112" t="s">
+      <c r="C59" s="98"/>
+      <c r="D59" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="112" t="s">
+      <c r="E59" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="112" t="s">
+      <c r="F59" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="G59" s="110" t="s">
+      <c r="G59" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H59" s="94" t="s">
+      <c r="H59" s="90" t="s">
         <v>369</v>
       </c>
-      <c r="I59" s="92" t="s">
+      <c r="I59" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="96" t="s">
+      <c r="K59" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L59" s="92" t="s">
+      <c r="L59" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M59" s="92" t="s">
+      <c r="M59" s="88" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="26.25" hidden="1" thickBot="1">
-      <c r="A60" s="98" t="s">
+      <c r="A60" s="94" t="s">
         <v>284</v>
       </c>
-      <c r="B60" s="98" t="str">
+      <c r="B60" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0059</v>
       </c>
-      <c r="C60" s="102" t="s">
+      <c r="C60" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D60" s="112" t="s">
+      <c r="D60" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="95" t="s">
+      <c r="E60" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="F60" s="95" t="s">
+      <c r="F60" s="91" t="s">
         <v>440</v>
       </c>
-      <c r="G60" s="110" t="s">
+      <c r="G60" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H60" s="94">
+      <c r="H60" s="90">
         <v>11.2</v>
       </c>
-      <c r="I60" s="92" t="s">
+      <c r="I60" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K60" s="96" t="s">
+      <c r="K60" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L60" s="92" t="s">
+      <c r="L60" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="M60" s="101" t="s">
+      <c r="M60" s="97" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="39" hidden="1" thickBot="1">
-      <c r="A61" s="98" t="s">
+      <c r="A61" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="B61" s="98" t="str">
+      <c r="B61" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0060</v>
       </c>
-      <c r="C61" s="102" t="s">
+      <c r="C61" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D61" s="112" t="s">
+      <c r="D61" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="E61" s="112" t="s">
+      <c r="E61" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="112" t="s">
+      <c r="F61" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="G61" s="110" t="s">
+      <c r="G61" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="I61" s="92" t="s">
+      <c r="I61" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K61" s="96" t="s">
+      <c r="K61" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L61" s="92" t="s">
+      <c r="L61" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="M61" s="101" t="s">
+      <c r="M61" s="97" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="39" hidden="1" thickBot="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="B62" s="98" t="str">
+      <c r="B62" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0061</v>
       </c>
-      <c r="C62" s="102" t="s">
+      <c r="C62" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D62" s="112" t="s">
+      <c r="D62" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="112" t="s">
+      <c r="E62" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="112" t="s">
+      <c r="F62" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="G62" s="110" t="s">
+      <c r="G62" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="I62" s="92" t="s">
+      <c r="I62" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K62" s="96" t="s">
+      <c r="K62" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L62" s="92" t="s">
+      <c r="L62" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="M62" s="101" t="s">
+      <c r="M62" s="97" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A63" s="98" t="s">
+      <c r="A63" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="B63" s="98" t="str">
+      <c r="B63" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0062</v>
       </c>
-      <c r="C63" s="102" t="s">
+      <c r="C63" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D63" s="112" t="s">
+      <c r="D63" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="E63" s="107" t="s">
+      <c r="E63" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="F63" s="109" t="s">
+      <c r="F63" s="105" t="s">
         <v>348</v>
       </c>
-      <c r="G63" s="117" t="s">
+      <c r="G63" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="H63" s="94">
+      <c r="H63" s="90">
         <v>12.11</v>
       </c>
-      <c r="I63" s="92" t="s">
+      <c r="I63" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L63" s="92" t="s">
+      <c r="L63" s="88" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="26.25" hidden="1" thickBot="1">
-      <c r="A64" s="98" t="s">
+      <c r="A64" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="B64" s="98" t="str">
+      <c r="B64" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0063</v>
       </c>
-      <c r="C64" s="102" t="s">
+      <c r="C64" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D64" s="112" t="s">
+      <c r="D64" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="E64" s="112" t="s">
+      <c r="E64" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="112" t="s">
+      <c r="F64" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="G64" s="110" t="s">
+      <c r="G64" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="I64" s="92" t="s">
+      <c r="I64" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K64" s="96" t="s">
+      <c r="K64" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L64" s="92" t="s">
+      <c r="L64" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="M64" s="101" t="s">
+      <c r="M64" s="97" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="39" thickBot="1">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="B65" s="98" t="str">
+      <c r="B65" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0064</v>
       </c>
-      <c r="C65" s="102" t="s">
+      <c r="C65" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="D65" s="107" t="s">
+      <c r="D65" s="103" t="s">
         <v>349</v>
       </c>
-      <c r="E65" s="95" t="s">
+      <c r="E65" s="91" t="s">
         <v>352</v>
       </c>
-      <c r="F65" s="95" t="s">
+      <c r="F65" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="G65" s="117" t="s">
+      <c r="G65" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="H65" s="90">
+      <c r="H65" s="86">
         <v>7.5</v>
       </c>
-      <c r="I65" s="92" t="s">
+      <c r="I65" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J65" s="96" t="s">
+      <c r="J65" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L65" s="92" t="s">
+      <c r="L65" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="M65" s="101" t="s">
+      <c r="M65" s="97" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="39" thickBot="1">
-      <c r="A66" s="98" t="s">
+      <c r="A66" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="B66" s="98" t="str">
+      <c r="B66" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0065</v>
       </c>
-      <c r="C66" s="102" t="s">
+      <c r="C66" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D66" s="112" t="s">
+      <c r="D66" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="E66" s="112" t="s">
+      <c r="E66" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="112" t="s">
+      <c r="F66" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="G66" s="110" t="s">
+      <c r="G66" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H66" s="94" t="s">
+      <c r="H66" s="90" t="s">
         <v>370</v>
       </c>
-      <c r="I66" s="92" t="s">
+      <c r="I66" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L66" s="92" t="s">
+      <c r="L66" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="M66" s="115" t="s">
+      <c r="M66" s="111" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="B67" s="98" t="str">
+      <c r="B67" s="94" t="str">
         <f t="shared" si="0"/>
         <v>127_0066</v>
       </c>
-      <c r="C67" s="102" t="s">
+      <c r="C67" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D67" s="112" t="s">
+      <c r="D67" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="E67" s="112" t="s">
+      <c r="E67" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="112" t="s">
+      <c r="F67" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="G67" s="110" t="s">
+      <c r="G67" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H67" s="94" t="s">
+      <c r="H67" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="I67" s="92" t="s">
+      <c r="I67" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L67" s="92" t="s">
+      <c r="L67" s="88" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="B68" s="98" t="str">
-        <f t="shared" ref="B68:B96" si="1">_xlfn.CONCAT("127_", TEXT(ROW()-1, "0000"))</f>
+      <c r="B68" s="94" t="str">
+        <f t="shared" ref="B68:B98" si="1">_xlfn.CONCAT("127_", TEXT(ROW()-1, "0000"))</f>
         <v>127_0067</v>
       </c>
-      <c r="C68" s="102" t="s">
+      <c r="C68" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D68" s="112" t="s">
+      <c r="D68" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="E68" s="112" t="s">
+      <c r="E68" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="112" t="s">
+      <c r="F68" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="G68" s="110" t="s">
+      <c r="G68" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H68" s="94" t="s">
+      <c r="H68" s="90" t="s">
         <v>372</v>
       </c>
-      <c r="I68" s="92" t="s">
+      <c r="I68" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L68" s="92" t="s">
+      <c r="L68" s="88" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="B69" s="98" t="str">
+      <c r="B69" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0068</v>
       </c>
-      <c r="C69" s="102" t="s">
+      <c r="C69" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D69" s="112" t="s">
+      <c r="D69" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="112" t="s">
+      <c r="E69" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="F69" s="112" t="s">
+      <c r="F69" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="110" t="s">
+      <c r="G69" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H69" s="94" t="s">
+      <c r="H69" s="90" t="s">
         <v>373</v>
       </c>
-      <c r="I69" s="92" t="s">
+      <c r="I69" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L69" s="92" t="s">
+      <c r="L69" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M69" s="115" t="s">
+      <c r="M69" s="111" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="39" thickBot="1">
-      <c r="A70" s="98" t="s">
+      <c r="A70" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="B70" s="98" t="str">
+      <c r="B70" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0069</v>
       </c>
-      <c r="C70" s="102" t="s">
+      <c r="C70" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D70" s="112" t="s">
+      <c r="D70" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="E70" s="112" t="s">
+      <c r="E70" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="112" t="s">
+      <c r="F70" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="110" t="s">
+      <c r="G70" s="106" t="s">
         <v>306</v>
       </c>
-      <c r="H70" s="94" t="s">
+      <c r="H70" s="90" t="s">
         <v>373</v>
       </c>
-      <c r="I70" s="92" t="s">
+      <c r="I70" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L70" s="92" t="s">
+      <c r="L70" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="M70" s="115" t="s">
+      <c r="M70" s="111" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="B71" s="98" t="str">
+      <c r="B71" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0070</v>
       </c>
-      <c r="C71" s="102" t="s">
+      <c r="C71" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D71" s="112" t="s">
+      <c r="D71" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="E71" s="112" t="s">
+      <c r="E71" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="F71" s="112" t="s">
+      <c r="F71" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="G71" s="110" t="s">
+      <c r="G71" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H71" s="94" t="s">
+      <c r="H71" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="I71" s="92" t="s">
+      <c r="I71" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L71" s="92" t="s">
+      <c r="L71" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="M71" s="115" t="s">
+      <c r="M71" s="111" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="39" thickBot="1">
-      <c r="A72" s="98" t="s">
+      <c r="A72" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="B72" s="98" t="str">
+      <c r="B72" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0071</v>
       </c>
-      <c r="C72" s="102" t="s">
+      <c r="C72" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D72" s="112" t="s">
+      <c r="D72" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="112" t="s">
+      <c r="E72" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="F72" s="112" t="s">
+      <c r="F72" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="G72" s="110" t="s">
+      <c r="G72" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H72" s="94" t="s">
+      <c r="H72" s="90" t="s">
         <v>366</v>
       </c>
-      <c r="I72" s="92" t="s">
+      <c r="I72" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="L72" s="92" t="s">
+      <c r="L72" s="88" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="26.25" hidden="1" thickBot="1">
-      <c r="A73" s="98" t="s">
+      <c r="A73" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="B73" s="98" t="str">
+      <c r="B73" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0072</v>
       </c>
-      <c r="C73" s="102" t="s">
+      <c r="C73" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D73" s="112" t="s">
+      <c r="D73" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="112" t="s">
+      <c r="E73" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="F73" s="112" t="s">
+      <c r="F73" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="G73" s="110" t="s">
+      <c r="G73" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H73" s="94">
+      <c r="H73" s="90">
         <v>9.4</v>
       </c>
-      <c r="I73" s="92" t="s">
+      <c r="I73" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="K73" s="96" t="s">
+      <c r="K73" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L73" s="92" t="s">
+      <c r="L73" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="M73" s="92" t="s">
+      <c r="M73" s="88" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="39" thickBot="1">
-      <c r="A74" s="98" t="str">
+      <c r="A74" s="94" t="str">
         <f>_xlfn.CONCAT("127_Ed2_", TEXT(ROW()-73, "000"))</f>
         <v>127_Ed2_001</v>
       </c>
-      <c r="B74" s="98" t="str">
+      <c r="B74" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0073</v>
       </c>
-      <c r="C74" s="90" t="s">
+      <c r="C74" s="86" t="s">
         <v>312</v>
       </c>
-      <c r="D74" s="107" t="s">
+      <c r="D74" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="E74" s="107" t="s">
+      <c r="E74" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="F74" s="109" t="s">
+      <c r="F74" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="G74" s="117" t="s">
+      <c r="G74" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="H74" s="90">
+      <c r="H74" s="86">
         <v>13.1</v>
       </c>
-      <c r="I74" s="111" t="s">
+      <c r="I74" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="L74" s="92" t="s">
+      <c r="L74" s="88" t="s">
         <v>321</v>
       </c>
-      <c r="M74" s="92" t="s">
+      <c r="M74" s="88" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A75" s="98" t="str">
-        <f t="shared" ref="A75:A96" si="2">_xlfn.CONCAT("127_Ed2_", TEXT(ROW()-73, "000"))</f>
+      <c r="A75" s="94" t="str">
+        <f t="shared" ref="A75:A98" si="2">_xlfn.CONCAT("127_Ed2_", TEXT(ROW()-73, "000"))</f>
         <v>127_Ed2_002</v>
       </c>
-      <c r="B75" s="98" t="str">
+      <c r="B75" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0074</v>
       </c>
-      <c r="C75" s="102" t="s">
+      <c r="C75" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D75" s="92" t="s">
+      <c r="D75" s="88" t="s">
         <v>374</v>
       </c>
-      <c r="E75" s="92" t="s">
+      <c r="E75" s="88" t="s">
         <v>375</v>
       </c>
-      <c r="F75" s="92" t="s">
+      <c r="F75" s="88" t="s">
         <v>376</v>
       </c>
-      <c r="G75" s="93" t="s">
+      <c r="G75" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="H75" s="94" t="s">
+      <c r="H75" s="90" t="s">
         <v>377</v>
       </c>
-      <c r="I75" s="111" t="s">
+      <c r="I75" s="107" t="s">
         <v>298</v>
       </c>
-      <c r="L75" s="101" t="s">
+      <c r="L75" s="97" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A76" s="98" t="str">
+      <c r="A76" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_003</v>
       </c>
-      <c r="B76" s="98" t="str">
+      <c r="B76" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0075</v>
       </c>
-      <c r="C76" s="94" t="s">
+      <c r="C76" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="D76" s="89" t="s">
+      <c r="D76" s="85" t="s">
         <v>379</v>
       </c>
-      <c r="E76" s="89" t="s">
+      <c r="E76" s="85" t="s">
         <v>380</v>
       </c>
-      <c r="F76" s="95" t="s">
+      <c r="F76" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="G76" s="117" t="s">
+      <c r="G76" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="H76" s="90">
+      <c r="H76" s="86">
         <v>7.3</v>
       </c>
-      <c r="I76" s="96" t="s">
+      <c r="I76" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L76" s="92" t="s">
+      <c r="L76" s="88" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A77" s="98" t="str">
+      <c r="A77" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_004</v>
       </c>
-      <c r="B77" s="98" t="str">
+      <c r="B77" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0076</v>
       </c>
@@ -6100,30 +6121,30 @@
       <c r="E77" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="F77" s="119" t="s">
+      <c r="F77" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="G77" s="126" t="s">
+      <c r="G77" s="120" t="s">
         <v>307</v>
       </c>
       <c r="H77" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="I77" s="92" t="s">
+      <c r="I77" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="89" t="s">
+      <c r="J77" s="92"/>
+      <c r="K77" s="92"/>
+      <c r="L77" s="85" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A78" s="98" t="str">
+      <c r="A78" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_005</v>
       </c>
-      <c r="B78" s="98" t="str">
+      <c r="B78" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0077</v>
       </c>
@@ -6136,30 +6157,30 @@
       <c r="E78" s="83" t="s">
         <v>411</v>
       </c>
-      <c r="F78" s="119" t="s">
+      <c r="F78" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="G78" s="126" t="s">
+      <c r="G78" s="120" t="s">
         <v>307</v>
       </c>
       <c r="H78" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="I78" s="92" t="s">
+      <c r="I78" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="J78" s="96"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="89" t="s">
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="85" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="39" thickBot="1">
-      <c r="A79" s="98" t="str">
+      <c r="A79" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_006</v>
       </c>
-      <c r="B79" s="98" t="str">
+      <c r="B79" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0078</v>
       </c>
@@ -6172,30 +6193,30 @@
       <c r="E79" s="83" t="s">
         <v>414</v>
       </c>
-      <c r="F79" s="119" t="s">
+      <c r="F79" s="113" t="s">
         <v>415</v>
       </c>
-      <c r="G79" s="126" t="s">
+      <c r="G79" s="120" t="s">
         <v>307</v>
       </c>
       <c r="H79" s="84" t="s">
         <v>409</v>
       </c>
-      <c r="I79" s="92" t="s">
+      <c r="I79" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="89" t="s">
+      <c r="J79" s="92"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="85" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A80" s="98" t="str">
+      <c r="A80" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_007</v>
       </c>
-      <c r="B80" s="98" t="str">
+      <c r="B80" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0079</v>
       </c>
@@ -6208,26 +6229,26 @@
       <c r="E80" s="83" t="s">
         <v>417</v>
       </c>
-      <c r="F80" s="119" t="s">
+      <c r="F80" s="113" t="s">
         <v>418</v>
       </c>
-      <c r="G80" s="126"/>
+      <c r="G80" s="120"/>
       <c r="H80" s="84"/>
-      <c r="I80" s="92" t="s">
+      <c r="I80" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="J80" s="96"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="89" t="s">
+      <c r="J80" s="92"/>
+      <c r="K80" s="92"/>
+      <c r="L80" s="85" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="39" thickBot="1">
-      <c r="A81" s="98" t="str">
+      <c r="A81" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_008</v>
       </c>
-      <c r="B81" s="98" t="str">
+      <c r="B81" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0080</v>
       </c>
@@ -6240,30 +6261,30 @@
       <c r="E81" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="F81" s="119" t="s">
+      <c r="F81" s="113" t="s">
         <v>421</v>
       </c>
-      <c r="G81" s="126" t="s">
+      <c r="G81" s="120" t="s">
         <v>307</v>
       </c>
       <c r="H81" s="84" t="s">
         <v>391</v>
       </c>
-      <c r="I81" s="92" t="s">
+      <c r="I81" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="89" t="s">
+      <c r="J81" s="92"/>
+      <c r="K81" s="92"/>
+      <c r="L81" s="85" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A82" s="98" t="str">
+      <c r="A82" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_009</v>
       </c>
-      <c r="B82" s="98" t="str">
+      <c r="B82" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0081</v>
       </c>
@@ -6276,30 +6297,30 @@
       <c r="E82" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="F82" s="119" t="s">
+      <c r="F82" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="G82" s="126" t="s">
+      <c r="G82" s="120" t="s">
         <v>307</v>
       </c>
       <c r="H82" s="84" t="s">
         <v>448</v>
       </c>
-      <c r="I82" s="92" t="s">
+      <c r="I82" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J82" s="96"/>
-      <c r="K82" s="96"/>
-      <c r="L82" s="89" t="s">
+      <c r="J82" s="92"/>
+      <c r="K82" s="92"/>
+      <c r="L82" s="85" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A83" s="98" t="str">
+      <c r="A83" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_010</v>
       </c>
-      <c r="B83" s="98" t="str">
+      <c r="B83" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0082</v>
       </c>
@@ -6312,30 +6333,30 @@
       <c r="E83" s="83" t="s">
         <v>426</v>
       </c>
-      <c r="F83" s="120" t="s">
+      <c r="F83" s="114" t="s">
         <v>427</v>
       </c>
-      <c r="G83" s="126" t="s">
+      <c r="G83" s="120" t="s">
         <v>307</v>
       </c>
       <c r="H83" s="84" t="s">
         <v>428</v>
       </c>
-      <c r="I83" s="96" t="s">
+      <c r="I83" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="J83" s="96"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="121" t="s">
+      <c r="J83" s="92"/>
+      <c r="K83" s="92"/>
+      <c r="L83" s="115" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="39" thickBot="1">
-      <c r="A84" s="98" t="str">
+      <c r="A84" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_011</v>
       </c>
-      <c r="B84" s="98" t="str">
+      <c r="B84" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0083</v>
       </c>
@@ -6348,30 +6369,30 @@
       <c r="E84" s="83" t="s">
         <v>430</v>
       </c>
-      <c r="F84" s="120" t="s">
+      <c r="F84" s="114" t="s">
         <v>427</v>
       </c>
-      <c r="G84" s="126" t="s">
+      <c r="G84" s="120" t="s">
         <v>307</v>
       </c>
       <c r="H84" s="84" t="s">
         <v>428</v>
       </c>
-      <c r="I84" s="96" t="s">
+      <c r="I84" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="J84" s="96"/>
-      <c r="K84" s="96"/>
-      <c r="L84" s="121" t="s">
+      <c r="J84" s="92"/>
+      <c r="K84" s="92"/>
+      <c r="L84" s="115" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="39" thickBot="1">
-      <c r="A85" s="98" t="str">
+      <c r="A85" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_012</v>
       </c>
-      <c r="B85" s="98" t="str">
+      <c r="B85" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0084</v>
       </c>
@@ -6384,565 +6405,629 @@
       <c r="E85" s="83" t="s">
         <v>432</v>
       </c>
-      <c r="F85" s="120" t="s">
+      <c r="F85" s="114" t="s">
         <v>433</v>
       </c>
-      <c r="G85" s="126" t="s">
+      <c r="G85" s="120" t="s">
         <v>307</v>
       </c>
       <c r="H85" s="84" t="s">
         <v>434</v>
       </c>
-      <c r="I85" s="96" t="s">
+      <c r="I85" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="J85" s="96" t="s">
+      <c r="J85" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="K85" s="96"/>
-      <c r="L85" s="121" t="s">
+      <c r="K85" s="92"/>
+      <c r="L85" s="115" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="39" thickBot="1">
-      <c r="A86" s="98" t="str">
+      <c r="A86" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_013</v>
       </c>
-      <c r="B86" s="98" t="str">
+      <c r="B86" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0085</v>
       </c>
-      <c r="C86" s="94" t="s">
+      <c r="C86" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="D86" s="92" t="s">
+      <c r="D86" s="88" t="s">
         <v>382</v>
       </c>
-      <c r="E86" s="92" t="s">
+      <c r="E86" s="88" t="s">
         <v>383</v>
       </c>
-      <c r="F86" s="92" t="s">
+      <c r="F86" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="G86" s="93" t="s">
+      <c r="G86" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="94" t="s">
+      <c r="H86" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="I86" s="96" t="s">
+      <c r="I86" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L86" s="92" t="s">
+      <c r="L86" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A87" s="98" t="str">
+      <c r="A87" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_014</v>
       </c>
-      <c r="B87" s="98" t="str">
+      <c r="B87" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0086</v>
       </c>
-      <c r="C87" s="94" t="s">
+      <c r="C87" s="90" t="s">
         <v>310</v>
       </c>
-      <c r="D87" s="92" t="s">
+      <c r="D87" s="88" t="s">
         <v>386</v>
       </c>
-      <c r="E87" s="92" t="s">
+      <c r="E87" s="88" t="s">
         <v>387</v>
       </c>
-      <c r="F87" s="92" t="s">
+      <c r="F87" s="88" t="s">
         <v>388</v>
       </c>
-      <c r="G87" s="93" t="s">
+      <c r="G87" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="H87" s="94">
+      <c r="H87" s="90">
         <v>7.3</v>
       </c>
-      <c r="I87" s="96" t="s">
+      <c r="I87" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L87" s="92" t="s">
+      <c r="L87" s="88" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A88" s="98" t="str">
+      <c r="A88" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_015</v>
       </c>
-      <c r="B88" s="98" t="str">
+      <c r="B88" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0087</v>
       </c>
-      <c r="C88" s="94" t="s">
+      <c r="C88" s="90" t="s">
         <v>310</v>
       </c>
-      <c r="D88" s="92" t="s">
+      <c r="D88" s="88" t="s">
         <v>449</v>
       </c>
-      <c r="E88" s="92" t="s">
+      <c r="E88" s="88" t="s">
         <v>389</v>
       </c>
-      <c r="F88" s="92" t="s">
+      <c r="F88" s="88" t="s">
         <v>390</v>
       </c>
-      <c r="G88" s="93" t="s">
+      <c r="G88" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="H88" s="94" t="s">
+      <c r="H88" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="I88" s="96" t="s">
+      <c r="I88" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L88" s="92" t="s">
+      <c r="L88" s="88" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A89" s="98" t="str">
+      <c r="A89" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_016</v>
       </c>
-      <c r="B89" s="98" t="str">
+      <c r="B89" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0088</v>
       </c>
-      <c r="C89" s="94" t="s">
+      <c r="C89" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="D89" s="92" t="s">
+      <c r="D89" s="88" t="s">
         <v>392</v>
       </c>
-      <c r="E89" s="92" t="s">
+      <c r="E89" s="88" t="s">
         <v>393</v>
       </c>
-      <c r="F89" s="92" t="s">
+      <c r="F89" s="88" t="s">
         <v>394</v>
       </c>
-      <c r="G89" s="93" t="s">
+      <c r="G89" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="H89" s="94" t="s">
+      <c r="H89" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="I89" s="96" t="s">
+      <c r="I89" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L89" s="92" t="s">
+      <c r="L89" s="88" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A90" s="98" t="str">
+      <c r="A90" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_017</v>
       </c>
-      <c r="B90" s="98" t="str">
+      <c r="B90" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0089</v>
       </c>
-      <c r="C90" s="94" t="s">
+      <c r="C90" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="D90" s="92" t="s">
+      <c r="D90" s="88" t="s">
         <v>395</v>
       </c>
-      <c r="E90" s="92" t="s">
+      <c r="E90" s="88" t="s">
         <v>396</v>
       </c>
-      <c r="F90" s="92" t="s">
+      <c r="F90" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="G90" s="93" t="s">
+      <c r="G90" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="H90" s="94" t="s">
+      <c r="H90" s="90" t="s">
         <v>362</v>
       </c>
-      <c r="I90" s="96" t="s">
+      <c r="I90" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L90" s="92" t="s">
+      <c r="L90" s="88" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="39" thickBot="1">
-      <c r="A91" s="98" t="str">
+      <c r="A91" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_018</v>
       </c>
-      <c r="B91" s="98" t="str">
+      <c r="B91" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0090</v>
       </c>
-      <c r="C91" s="94" t="s">
+      <c r="C91" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="D91" s="92" t="s">
+      <c r="D91" s="88" t="s">
         <v>398</v>
       </c>
-      <c r="E91" s="92" t="s">
+      <c r="E91" s="88" t="s">
         <v>399</v>
       </c>
-      <c r="F91" s="92" t="s">
+      <c r="F91" s="88" t="s">
         <v>400</v>
       </c>
-      <c r="G91" s="93" t="s">
+      <c r="G91" s="89" t="s">
         <v>321</v>
       </c>
-      <c r="I91" s="96" t="s">
+      <c r="I91" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L91" s="92" t="s">
+      <c r="L91" s="88" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A92" s="98" t="str">
+      <c r="A92" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_019</v>
       </c>
-      <c r="B92" s="98" t="str">
+      <c r="B92" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0091</v>
       </c>
-      <c r="C92" s="94" t="s">
+      <c r="C92" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="D92" s="92" t="s">
+      <c r="D92" s="88" t="s">
         <v>450</v>
       </c>
-      <c r="E92" s="92" t="s">
+      <c r="E92" s="88" t="s">
         <v>451</v>
       </c>
-      <c r="F92" s="92" t="s">
+      <c r="F92" s="88" t="s">
         <v>452</v>
       </c>
-      <c r="G92" s="93" t="s">
+      <c r="G92" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="H92" s="94" t="s">
+      <c r="H92" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="I92" s="96" t="s">
+      <c r="I92" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="J92" s="96"/>
-      <c r="K92" s="96"/>
-      <c r="L92" s="92" t="s">
+      <c r="J92" s="92"/>
+      <c r="K92" s="92"/>
+      <c r="L92" s="88" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A93" s="98" t="str">
+      <c r="A93" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_020</v>
       </c>
-      <c r="B93" s="98" t="str">
+      <c r="B93" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0092</v>
       </c>
-      <c r="C93" s="102" t="s">
+      <c r="C93" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="D93" s="124" t="s">
+      <c r="D93" s="118" t="s">
         <v>453</v>
       </c>
       <c r="E93" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="F93" s="120" t="s">
+      <c r="F93" s="114" t="s">
         <v>455</v>
       </c>
-      <c r="G93" s="126" t="s">
+      <c r="G93" s="120" t="s">
         <v>307</v>
       </c>
-      <c r="H93" s="125">
+      <c r="H93" s="119">
         <v>2.4</v>
       </c>
-      <c r="I93" s="96" t="s">
+      <c r="I93" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="J93" s="96"/>
-      <c r="K93" s="96"/>
-      <c r="L93" s="121" t="s">
+      <c r="J93" s="92"/>
+      <c r="K93" s="92"/>
+      <c r="L93" s="115" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A94" s="98" t="str">
+      <c r="A94" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_021</v>
       </c>
-      <c r="B94" s="98" t="str">
+      <c r="B94" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0093</v>
       </c>
-      <c r="C94" s="102" t="s">
+      <c r="C94" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D94" s="127" t="s">
+      <c r="D94" s="121" t="s">
         <v>456</v>
       </c>
-      <c r="E94" s="95" t="s">
+      <c r="E94" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="F94" s="92" t="s">
+      <c r="F94" s="88" t="s">
         <v>458</v>
       </c>
-      <c r="G94" s="110" t="s">
+      <c r="G94" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H94" s="94" t="s">
+      <c r="H94" s="90" t="s">
         <v>459</v>
       </c>
-      <c r="I94" s="96" t="s">
+      <c r="I94" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L94" s="92" t="s">
+      <c r="L94" s="88" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="51.75" thickBot="1">
-      <c r="A95" s="98" t="str">
+      <c r="A95" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_022</v>
       </c>
-      <c r="B95" s="98" t="str">
+      <c r="B95" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0094</v>
       </c>
-      <c r="C95" s="102" t="s">
+      <c r="C95" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D95" s="92" t="s">
+      <c r="D95" s="88" t="s">
         <v>460</v>
       </c>
-      <c r="E95" s="95" t="s">
+      <c r="E95" s="91" t="s">
         <v>462</v>
       </c>
-      <c r="F95" s="92" t="s">
+      <c r="F95" s="88" t="s">
         <v>461</v>
       </c>
-      <c r="G95" s="110" t="s">
+      <c r="G95" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H95" s="94" t="s">
+      <c r="H95" s="90" t="s">
         <v>459</v>
       </c>
-      <c r="I95" s="96" t="s">
+      <c r="I95" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="L95" s="92" t="s">
+      <c r="L95" s="88" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="39" thickBot="1">
-      <c r="A96" s="98" t="str">
+      <c r="A96" s="94" t="str">
         <f t="shared" si="2"/>
         <v>127_Ed2_023</v>
       </c>
-      <c r="B96" s="98" t="str">
+      <c r="B96" s="94" t="str">
         <f t="shared" si="1"/>
         <v>127_0095</v>
       </c>
-      <c r="C96" s="102" t="s">
+      <c r="C96" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="D96" s="92" t="s">
+      <c r="D96" s="88" t="s">
         <v>466</v>
       </c>
-      <c r="E96" s="95" t="s">
+      <c r="E96" s="91" t="s">
         <v>463</v>
       </c>
-      <c r="F96" s="92" t="s">
+      <c r="F96" s="88" t="s">
         <v>464</v>
       </c>
-      <c r="G96" s="110" t="s">
+      <c r="G96" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="H96" s="94" t="s">
+      <c r="H96" s="90" t="s">
         <v>465</v>
       </c>
-      <c r="I96" s="96" t="s">
+      <c r="I96" s="92" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="3:5" thickBot="1">
-      <c r="C97" s="102"/>
-      <c r="E97" s="112"/>
-    </row>
-    <row r="98" spans="3:5" thickBot="1">
-      <c r="C98" s="102"/>
-      <c r="E98" s="112"/>
-    </row>
-    <row r="99" spans="3:5" thickBot="1">
-      <c r="C99" s="102"/>
-      <c r="E99" s="112"/>
-    </row>
-    <row r="100" spans="3:5" thickBot="1">
-      <c r="C100" s="102"/>
-      <c r="E100" s="112"/>
-    </row>
-    <row r="101" spans="3:5" thickBot="1">
-      <c r="C101" s="102"/>
-      <c r="E101" s="112"/>
-    </row>
-    <row r="102" spans="3:5" thickBot="1">
-      <c r="C102" s="102"/>
-      <c r="E102" s="112"/>
-    </row>
-    <row r="103" spans="3:5" thickBot="1">
-      <c r="C103" s="102"/>
-      <c r="E103" s="112"/>
-    </row>
-    <row r="104" spans="3:5" thickBot="1">
-      <c r="C104" s="102"/>
-      <c r="E104" s="112"/>
-    </row>
-    <row r="105" spans="3:5" thickBot="1">
-      <c r="C105" s="102"/>
-      <c r="E105" s="112"/>
-    </row>
-    <row r="106" spans="3:5" thickBot="1">
-      <c r="C106" s="102"/>
-      <c r="E106" s="112"/>
-    </row>
-    <row r="107" spans="3:5" thickBot="1">
-      <c r="C107" s="102"/>
-      <c r="E107" s="112"/>
-    </row>
-    <row r="108" spans="3:5" thickBot="1">
-      <c r="C108" s="102"/>
-      <c r="E108" s="112"/>
-    </row>
-    <row r="109" spans="3:5" thickBot="1">
-      <c r="C109" s="102"/>
-      <c r="E109" s="112"/>
-    </row>
-    <row r="110" spans="3:5" thickBot="1">
-      <c r="C110" s="102"/>
-      <c r="E110" s="112"/>
-    </row>
-    <row r="111" spans="3:5" thickBot="1">
-      <c r="C111" s="102"/>
-      <c r="E111" s="112"/>
-    </row>
-    <row r="112" spans="3:5" thickBot="1">
-      <c r="C112" s="102"/>
-      <c r="E112" s="112"/>
+    <row r="97" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A97" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>127_Ed2_024</v>
+      </c>
+      <c r="B97" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>127_0096</v>
+      </c>
+      <c r="C97" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="D97" s="88" t="s">
+        <v>467</v>
+      </c>
+      <c r="E97" s="88" t="s">
+        <v>468</v>
+      </c>
+      <c r="F97" s="88" t="s">
+        <v>469</v>
+      </c>
+      <c r="G97" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="I97" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="J97" s="92"/>
+      <c r="K97" s="92"/>
+      <c r="L97" s="88" t="s">
+        <v>470</v>
+      </c>
+      <c r="M97" s="82" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A98" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v>127_Ed2_025</v>
+      </c>
+      <c r="B98" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>127_0097</v>
+      </c>
+      <c r="C98" s="90" t="s">
+        <v>313</v>
+      </c>
+      <c r="D98" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="E98" s="88" t="s">
+        <v>473</v>
+      </c>
+      <c r="F98" s="88" t="s">
+        <v>474</v>
+      </c>
+      <c r="G98" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="I98" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="J98" s="92"/>
+      <c r="K98" s="92"/>
+      <c r="L98" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="M98" s="82" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" thickBot="1">
+      <c r="C99" s="98"/>
+      <c r="E99" s="108"/>
+    </row>
+    <row r="100" spans="1:13" thickBot="1">
+      <c r="C100" s="98"/>
+      <c r="E100" s="108"/>
+    </row>
+    <row r="101" spans="1:13" thickBot="1">
+      <c r="C101" s="98"/>
+      <c r="E101" s="108"/>
+    </row>
+    <row r="102" spans="1:13" thickBot="1">
+      <c r="C102" s="98"/>
+      <c r="E102" s="108"/>
+    </row>
+    <row r="103" spans="1:13" thickBot="1">
+      <c r="C103" s="98"/>
+      <c r="E103" s="108"/>
+    </row>
+    <row r="104" spans="1:13" thickBot="1">
+      <c r="C104" s="98"/>
+      <c r="E104" s="108"/>
+    </row>
+    <row r="105" spans="1:13" thickBot="1">
+      <c r="C105" s="98"/>
+      <c r="E105" s="108"/>
+    </row>
+    <row r="106" spans="1:13" thickBot="1">
+      <c r="C106" s="98"/>
+      <c r="E106" s="108"/>
+    </row>
+    <row r="107" spans="1:13" thickBot="1">
+      <c r="C107" s="98"/>
+      <c r="E107" s="108"/>
+    </row>
+    <row r="108" spans="1:13" thickBot="1">
+      <c r="C108" s="98"/>
+      <c r="E108" s="108"/>
+    </row>
+    <row r="109" spans="1:13" thickBot="1">
+      <c r="C109" s="98"/>
+      <c r="E109" s="108"/>
+    </row>
+    <row r="110" spans="1:13" thickBot="1">
+      <c r="C110" s="98"/>
+      <c r="E110" s="108"/>
+    </row>
+    <row r="111" spans="1:13" thickBot="1">
+      <c r="C111" s="98"/>
+      <c r="E111" s="108"/>
+    </row>
+    <row r="112" spans="1:13" thickBot="1">
+      <c r="C112" s="98"/>
+      <c r="E112" s="108"/>
     </row>
     <row r="113" spans="3:5" thickBot="1">
-      <c r="C113" s="102"/>
-      <c r="E113" s="112"/>
+      <c r="C113" s="98"/>
+      <c r="E113" s="108"/>
     </row>
     <row r="114" spans="3:5" thickBot="1">
-      <c r="C114" s="102"/>
-      <c r="E114" s="112"/>
+      <c r="C114" s="98"/>
+      <c r="E114" s="108"/>
     </row>
     <row r="115" spans="3:5" thickBot="1">
-      <c r="C115" s="102"/>
-      <c r="E115" s="112"/>
+      <c r="C115" s="98"/>
+      <c r="E115" s="108"/>
     </row>
     <row r="116" spans="3:5" thickBot="1">
-      <c r="C116" s="102"/>
-      <c r="E116" s="112"/>
+      <c r="C116" s="98"/>
+      <c r="E116" s="108"/>
     </row>
     <row r="117" spans="3:5" thickBot="1">
-      <c r="C117" s="102"/>
-      <c r="E117" s="112"/>
+      <c r="C117" s="98"/>
+      <c r="E117" s="108"/>
     </row>
     <row r="118" spans="3:5" thickBot="1">
-      <c r="C118" s="102"/>
-      <c r="E118" s="112"/>
+      <c r="C118" s="98"/>
+      <c r="E118" s="108"/>
     </row>
     <row r="119" spans="3:5" thickBot="1">
-      <c r="C119" s="102"/>
-      <c r="E119" s="112"/>
+      <c r="C119" s="98"/>
+      <c r="E119" s="108"/>
     </row>
     <row r="120" spans="3:5" thickBot="1">
-      <c r="C120" s="102"/>
-      <c r="E120" s="112"/>
+      <c r="C120" s="98"/>
+      <c r="E120" s="108"/>
     </row>
     <row r="121" spans="3:5" thickBot="1">
-      <c r="C121" s="102"/>
-      <c r="E121" s="112"/>
+      <c r="C121" s="98"/>
+      <c r="E121" s="108"/>
     </row>
     <row r="122" spans="3:5" thickBot="1">
-      <c r="C122" s="102"/>
-      <c r="E122" s="112"/>
+      <c r="C122" s="98"/>
+      <c r="E122" s="108"/>
     </row>
     <row r="123" spans="3:5" thickBot="1">
-      <c r="C123" s="102"/>
-      <c r="E123" s="112"/>
+      <c r="C123" s="98"/>
+      <c r="E123" s="108"/>
     </row>
     <row r="124" spans="3:5" thickBot="1">
-      <c r="C124" s="102"/>
-      <c r="E124" s="112"/>
+      <c r="C124" s="98"/>
+      <c r="E124" s="108"/>
     </row>
     <row r="125" spans="3:5" thickBot="1">
-      <c r="C125" s="102"/>
-      <c r="E125" s="112"/>
+      <c r="C125" s="98"/>
+      <c r="E125" s="108"/>
     </row>
     <row r="126" spans="3:5" thickBot="1">
-      <c r="C126" s="102"/>
-      <c r="E126" s="112"/>
+      <c r="C126" s="98"/>
+      <c r="E126" s="108"/>
     </row>
     <row r="127" spans="3:5" thickBot="1">
-      <c r="C127" s="102"/>
-      <c r="E127" s="112"/>
+      <c r="C127" s="98"/>
+      <c r="E127" s="108"/>
     </row>
     <row r="128" spans="3:5" thickBot="1">
-      <c r="C128" s="102"/>
-      <c r="E128" s="112"/>
+      <c r="C128" s="98"/>
+      <c r="E128" s="108"/>
     </row>
     <row r="129" spans="3:5" thickBot="1">
-      <c r="C129" s="102"/>
-      <c r="E129" s="112"/>
+      <c r="C129" s="98"/>
+      <c r="E129" s="108"/>
     </row>
     <row r="130" spans="3:5" thickBot="1">
-      <c r="C130" s="102"/>
-      <c r="E130" s="112"/>
+      <c r="C130" s="98"/>
+      <c r="E130" s="108"/>
     </row>
     <row r="131" spans="3:5" thickBot="1">
-      <c r="C131" s="102"/>
-      <c r="E131" s="112"/>
+      <c r="C131" s="98"/>
+      <c r="E131" s="108"/>
     </row>
     <row r="132" spans="3:5" thickBot="1">
-      <c r="C132" s="102"/>
-      <c r="E132" s="112"/>
+      <c r="C132" s="98"/>
+      <c r="E132" s="108"/>
     </row>
     <row r="133" spans="3:5" thickBot="1">
-      <c r="C133" s="102"/>
-      <c r="E133" s="112"/>
+      <c r="C133" s="98"/>
+      <c r="E133" s="108"/>
     </row>
     <row r="134" spans="3:5" thickBot="1">
-      <c r="C134" s="102"/>
-      <c r="E134" s="112"/>
+      <c r="C134" s="98"/>
+      <c r="E134" s="108"/>
     </row>
     <row r="135" spans="3:5" thickBot="1">
-      <c r="C135" s="102"/>
-      <c r="E135" s="112"/>
+      <c r="C135" s="98"/>
+      <c r="E135" s="108"/>
     </row>
     <row r="136" spans="3:5" thickBot="1">
-      <c r="C136" s="102"/>
-      <c r="E136" s="112"/>
+      <c r="C136" s="98"/>
+      <c r="E136" s="108"/>
     </row>
     <row r="137" spans="3:5" thickBot="1">
-      <c r="C137" s="102"/>
-      <c r="E137" s="112"/>
+      <c r="C137" s="98"/>
+      <c r="E137" s="108"/>
     </row>
     <row r="138" spans="3:5" thickBot="1">
-      <c r="C138" s="102"/>
-      <c r="E138" s="112"/>
+      <c r="C138" s="98"/>
+      <c r="E138" s="108"/>
     </row>
   </sheetData>
   <autoFilter ref="K1:K141" xr:uid="{00000000-0001-0000-0100-000000000000}">
